--- a/data/management/Management_information_GGE_2016.xlsx
+++ b/data/management/Management_information_GGE_2016.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F1490-0539-C941-9CAF-B94B4C865610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36960" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -235,9 +241,6 @@
     <t>Keine</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>Biathlon 4D+Dash+Axial50+Finy</t>
   </si>
   <si>
@@ -302,13 +305,16 @@
   </si>
   <si>
     <t>Grunddünger 14.03.2016  20 P2O5   60K2O   14MgO    11S</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,10 +518,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,9 +537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -571,7 +577,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -605,6 +611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -639,9 +646,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -814,33 +822,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="36.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -848,7 +856,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -856,25 +864,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -882,7 +890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -890,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,19 +906,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -918,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -926,7 +934,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -934,7 +942,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -942,21 +950,21 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -965,7 +973,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -974,7 +982,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -983,36 +991,36 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1021,7 +1029,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1030,28 +1038,28 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,18 +1070,18 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="11">
         <v>42324</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1095,14 +1103,14 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1">
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
@@ -1172,7 +1180,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>49</v>
       </c>
@@ -1207,12 +1215,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="13">
         <v>42440</v>
@@ -1221,26 +1229,26 @@
         <v>40</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" s="15">
         <v>42467</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>53</v>
       </c>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -1267,7 +1275,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1286,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -1288,7 +1296,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1309,7 +1317,7 @@
       </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1318,7 +1326,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -1328,7 +1336,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1347,7 +1355,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1364,7 +1372,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1373,7 +1381,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -1381,7 +1389,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1398,7 +1406,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="36" customHeight="1">
+    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
@@ -1433,12 +1441,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="13">
         <v>42440</v>
@@ -1447,26 +1455,26 @@
         <v>50</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G55" s="15">
         <v>42467</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>53</v>
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>81</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>12</v>
@@ -1493,7 +1501,7 @@
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1507,10 +1515,10 @@
         <v>60</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -1520,7 +1528,7 @@
       </c>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1541,7 +1549,7 @@
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1550,7 +1558,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -1560,7 +1568,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1587,7 @@
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1596,7 +1604,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -1605,21 +1613,21 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="15">
         <v>42471</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -1636,7 +1644,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>49</v>
       </c>
@@ -1671,12 +1679,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="13">
         <v>42440</v>
@@ -1685,26 +1693,26 @@
         <v>50</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" s="15">
         <v>42467</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>53</v>
       </c>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1718,7 +1726,7 @@
         <v>81</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>12</v>
@@ -1731,7 +1739,7 @@
       </c>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1745,10 +1753,10 @@
         <v>60</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -1758,7 +1766,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -1779,7 +1787,7 @@
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -1788,23 +1796,23 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G70" s="15">
         <v>42471</v>
       </c>
       <c r="H70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -1819,17 +1827,17 @@
         <v>42515</v>
       </c>
       <c r="H71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -1846,7 +1854,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -1855,21 +1863,21 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="15">
         <v>42471</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1894,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>49</v>
       </c>
@@ -1921,12 +1929,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>68</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="13">
         <v>42440</v>
@@ -1935,26 +1943,26 @@
         <v>50</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G77" s="15">
         <v>42467</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>81</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>12</v>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -1995,10 +2003,10 @@
         <v>60</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -2008,7 +2016,7 @@
       </c>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -2029,7 +2037,7 @@
       </c>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -2038,23 +2046,23 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G81" s="15">
         <v>42471</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -2069,17 +2077,17 @@
         <v>42515</v>
       </c>
       <c r="H82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -2096,7 +2104,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -2105,21 +2113,21 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="15">
         <v>42471</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -2136,24 +2144,24 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/management/Management_information_GGE_2016.xlsx
+++ b/data/management/Management_information_GGE_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F1490-0539-C941-9CAF-B94B4C865610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF313AFD-A766-6940-A062-2E6DD57E6177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="36960" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,9 +247,6 @@
     <t>Pflug,    Kreiselegge</t>
   </si>
   <si>
-    <t>Verschiedene Getreide</t>
-  </si>
-  <si>
     <t>0,8 l/ha + 0,2 l/ha</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Keine Beregnung</t>
   </si>
   <si>
-    <t>Sommergerste</t>
-  </si>
-  <si>
     <t>12.10/14.10.2015</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>summer barley</t>
+  </si>
+  <si>
+    <t>grain crops</t>
   </si>
 </sst>
 </file>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,7 +999,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1016,7 +1016,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1075,7 +1075,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" s="11">
         <v>42324</v>
@@ -1220,7 +1220,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="13">
         <v>42440</v>
@@ -1229,16 +1229,16 @@
         <v>40</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G44" s="15">
         <v>42467</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>73</v>
@@ -1262,7 +1262,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -1286,7 +1286,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -1326,7 +1326,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -1381,7 +1381,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -1446,7 +1446,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" s="13">
         <v>42440</v>
@@ -1455,16 +1455,16 @@
         <v>50</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G55" s="15">
         <v>42467</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>73</v>
@@ -1488,7 +1488,7 @@
         <v>81</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>12</v>
@@ -1515,10 +1515,10 @@
         <v>60</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -1558,7 +1558,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -1613,16 +1613,16 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62" s="15">
         <v>42471</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -1684,7 +1684,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="13">
         <v>42440</v>
@@ -1693,16 +1693,16 @@
         <v>50</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G66" s="15">
         <v>42467</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>73</v>
@@ -1726,7 +1726,7 @@
         <v>81</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>12</v>
@@ -1753,10 +1753,10 @@
         <v>60</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -1796,16 +1796,16 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G70" s="15">
         <v>42471</v>
       </c>
       <c r="H70" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>57</v>
@@ -1827,10 +1827,10 @@
         <v>42515</v>
       </c>
       <c r="H71" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>58</v>
@@ -1863,16 +1863,16 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G73" s="15">
         <v>42471</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -1934,7 +1934,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" s="13">
         <v>42440</v>
@@ -1943,16 +1943,16 @@
         <v>50</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G77" s="15">
         <v>42467</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>73</v>
@@ -1976,7 +1976,7 @@
         <v>81</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>12</v>
@@ -2003,10 +2003,10 @@
         <v>60</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -2046,16 +2046,16 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G81" s="15">
         <v>42471</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>57</v>
@@ -2077,10 +2077,10 @@
         <v>42515</v>
       </c>
       <c r="H82" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>58</v>
@@ -2113,16 +2113,16 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G84" s="15">
         <v>42471</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -2146,22 +2146,22 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
